--- a/TestData/LoginCredentials.xlsx
+++ b/TestData/LoginCredentials.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahba\OneDrive\Documents\Babulal_Docs\MochaSeleniumTests\UCIC.WebAutomation\UCIC.WebAutomation\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sahba\OneDrive\Documents\Babulal_Docs\MochaSeleniumTests\MochaWeb\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD34E7F5-7D53-4EF8-BB87-EFECD281DDA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC22BEB7-80C3-47D7-AFE2-838E76AA26A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0F843C61-8AEA-44B9-A9C1-B1B4CCC5BDC7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,26 +34,19 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Username</t>
   </si>
   <si>
     <t>Password</t>
   </si>
-  <si>
-    <t>test204@yopmail.com</t>
-  </si>
-  <si>
-    <t>Test@1234</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,18 +63,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,12 +82,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" applyNumberFormat="0" fontId="1" applyFont="1" fillId="0" applyFill="0" borderId="0" applyBorder="0" applyProtection="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" applyFill="1" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" applyFont="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -419,7 +406,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -428,24 +415,19 @@
     <col min="2" max="2" width="17.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>